--- a/finetuning/it_datasets/it_dataset/it_ksar hellal_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_ksar hellal_dataset.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're looking for a great cafe, check out Cafe de l'Excellence located at MV5R+67F Cafe de l'Excellence, Av. Habib Bourguiba, Ksar Hellal. This top-rated destination is perfect for cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Cafe de l'Excellence is a cafe located in Ksar Hellal, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at the coordinates (35.664361783147, 10.870534903775) and has a 4.5 rating on Google.</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you find yourself in ksar hellal seeking an enjoyable experience, visit Cafe Delice in MV3J+7FR, Ksar Hellal. Renowned for its Cafe offerings, it's a hotspot for Cafe enthusiasts. Boasting a 4.1 rating, it's highly recommended. Their hours of operation are from 06:00-23:30, but they are closed on []. For directions, use the GPS coordinates (35.6447353, 10.8880694).</t>
+          <t>Cafe Delice is a cafe located in Ksar Hellal, Tunisia at the coordinates (35.6447353, 10.8880694). It is highly rated with 4.1 stars and has received 18 reviews. Unfortunately, there is no available information about its website, description, or contact information like phone number.</t>
         </is>
       </c>
     </row>
@@ -848,9 +848,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Hugo Said located at MV3Q+7Q4 Cafe Hugo Said, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Cafe Hugo Said is a highly-rated cafe located in Ksar Hellal, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is known for its friendly staff and relaxed atmosphere, and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -949,7 +947,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe le colisee located at Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 03:00-00:00. To get there, use these GPS coordinates: 35.6462461, 10.886155. For more details, visit their website at or call them at .</t>
+          <t>Café Le Colisée is a highly-rated café located in Ksar Hellal, Tunisia. Open from 3 AM to midnight every day, it offers a cozy ambiance and a welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1052,9 +1050,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, check out Cafe Prestige located at MV5G+H2V Cafe Prestige, Av. Habib bourguiba, Ksar Hellal. 
-This destination is perfect for cafe lovers and offers a range of cafe categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-00:00. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website or call them at 93 795 056.</t>
+          <t>Cafe Prestige is a cafe located in Ksar Hellal, Tunisia. It is a 5-star-rated cafe that serves its customers from 4:30 AM to midnight. It offers various services and products, making it an ideal place to relax and enjoy.</t>
         </is>
       </c>
     </row>
@@ -1157,9 +1153,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out cafe.te.ria Boughzala located at MV3C+2JW cafe.te.ria Boughzala, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9.te.ria+Boughzala/data=!4m7!3m6!1s0x130211c3033024c5:0xff901db07e5c608e!8m2!3d35.6526165!4d10.8715832!16s%2Fg%2F11h144br6x!19sChIJxSQwA8MRAhMRjmBcfrAdkP8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 394 201.</t>
+          <t>Located in Ksar Hellal at the coordinates (35.6447353, 10.8880694), Cafe.te.ria Boughzala is a cafe with a 5.0 rating. It offers a wide range of services and products, including sitting areas, a cozy atmosphere, and delicious coffee and snacks.</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1252,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Gracia's located at Av. Hadj Ali Soua, Ksar Hellal 5070. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.650286306643, 10.889871328591. For more details, visit their link at https://www.google.com/maps/place/Gracia%E2%80%99s/data=!4m7!3m6!1s0x1302117ea8e90fad:0xd6e4584c8d9882e6!8m2!3d35.6545647!4d10.8901803!16s%2Fg%2F11t3bt7qq6!19sChIJrQ_pqH4RAhMR5oKYjUxY5NY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 504 544.</t>
+          <t>Gracia's, located in Ksar Hellal (35.650286306643, 10.889871328591), is a highly rated (4.4 out of 5 based on 53 reviews) creperie. Known for its delicious crepes and waffles, Gracia's is a popular spot for locals and tourists alike. Despite not having an official website, it has a strong online presence with a Google My Business page that provides contact information and further details about the business. Gracia's is owned by an individual named "Gracia's (proprietaire)."</t>
         </is>
       </c>
     </row>
@@ -1357,8 +1351,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, check out Cafe de l'Excellence located at MV5R+67F Cafe de l'Excellence, Av. Habib Bourguiba, Ksar Hellal. 
-This popular destination offers a range of drinks and a relaxed ambiance to enjoy it all in. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day, so you can visit it whenever you want. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Cafe de l'Excellence is a 4.5-rated cafe located in Ksar Hellal, offering around-the-clock service. It features a prime location at Av. Habib Bourguiba, making it easily accessible to both locals and visitors. Cafe de l'Excellence  is positioned at coordinates (35.664361783147, 10.870534903775), offering a convenient destination for coffee lovers and those seeking a pleasant ambiance.</t>
         </is>
       </c>
     </row>
@@ -1461,11 +1454,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Ksar Hellal and looking for a tasty bite, check out Chaneb Food shnb fwd located at En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba. 
-This top-rated fast food spot is perfect for Tunisian foodies and offers a range of choices. 
-With a rating of 4.4, it's a must-visit spot. It's open daily from 11:00-23:00. 
-To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. 
-For more details, visit their website or call them at 58 336 336.</t>
+          <t>Located in Ksar Hellal, Tunisia, Chaneb Food is a fast-food restaurant that offers traditional Tunisian cuisine. It is located on Avenue Habib Bourguiba, in front of the "ZEN" building. The restaurant has a rating of 4.4 based on 22 reviews and is open from 11:00 am to 11:00 pm daily.</t>
         </is>
       </c>
     </row>
@@ -1564,9 +1553,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Kuriat located at MV5R+397 Cafe Kuriat, Av. Habib Bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:30-12:00. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kuriat/data=!4m7!3m6!1s0x130216cad0f4f607:0x309517f9291d2699!8m2!3d35.657658!4d10.8909166!16s%2Fg%2F11b6xd4zfl!19sChIJB_b00MoWAhMRmSYdKfkXlTA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Kuriat is a cafe located in Ksar Hellal, Tunisia. It offers a 4.2-star rating and is open from 6:30am to 12:00pm. It is situated at coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
     </row>
@@ -1665,9 +1652,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a cozy Cafe, check out Cafe Delice located at MV3J+7FR Cafe Delice. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at .</t>
+          <t>Cafe Delice is a highly rated cafe located in Ksar Hellal. The venue offers a rich selection of food and beverages. With a 4.1 star rating out of 18 reviews, the cafe is open from 06:00-23:30 with no day offs. Cafe Delice is situated at the following coordinates: (35.6447353, 10.8880694) and can be contacted directly through their website.</t>
         </is>
       </c>
     </row>
@@ -1770,9 +1755,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great restaurant, check out Volcano located at JVVR+Q95 Volcano, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 13:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, call them at 98 288 755.</t>
+          <t>The Volcano Restaurant is located in Volcano, Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It offers a dining experience with a 4.4-star rating, categorized as a Restaurant. The restaurant serves lunch and dinner from 13:00 to 00:00, except on Sundays when it is closed. Contact can be made via phone at 98 288 755.</t>
         </is>
       </c>
     </row>
@@ -1879,9 +1862,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Down Town located at Down Town, avenue aglabite, Ksar Hellal 5070. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at https://www.facebook.com/down-town-caf%25C3%25A9-109068542474837/ or call them at 98 514 151.</t>
+          <t>Down Town is a popular tea room located in Ksar Hellal, Tunisia. With a rating of 4.5 stars, it is known for its delicious tea and pastries. The tea room is open from 7 am to 1 am, making it a great place to relax and unwind any time of day. Down Town is also conveniently located just off the avenue aglabite, making it easy to find.</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1965,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Pizzeria, check out SULTANE EL CHAM located at JVWR+PGW SULTANE EL CHAM, Av. Habib Bourguiba, Ksar Hellal. This 4.4-rated destination offers a range of Pizzeria options to choose from. It's open during these hours: 08:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/SULTANE+EL+CHAM/data=!4m7!3m6!1s0x1302177459df3353:0x9d6cb570a7ce5030!8m2!3d35.6467824!4d10.8913317!16s%2Fg%2F11rclk8xjd!19sChIJUzPfWXQXAhMRMFDOp3C1bJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 911 911.</t>
+          <t>SULTANE EL CHAM is a pizzeria located in ksar hellal, Tunisia (35.664361783147, 10.870534903775). It has a rating of 4.4 and is renowned for its delicious pizzas and excellent customer service. The pizzeria is open from 08:00 to 23:00 every day except for Mondays.</t>
         </is>
       </c>
     </row>
@@ -2083,9 +2064,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Hugo Said. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Hugo+Sa%C3%AFd/data=!4m7!3m6!1s0x130211fa81679f21:0x8ddbe2854efa6b88!8m2!3d35.6531383!4d10.8894671!16s%2Fg%2F11pz51wx06!19sChIJIZ9ngfoRAhMRiGv6ToXi240?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of Ksar Hellal at coordinates (35.6447353, 10.8880694), Cafe Hugo Said is a cozy retreat for coffee enthusiasts and diners alike. As a reputable Cafe, it offers a warm and inviting atmosphere where guests can indulge in a variety of culinary delights.</t>
         </is>
       </c>
     </row>
@@ -2188,9 +2167,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out BAM COFFEE SHOP located at MV4R+Q82 BAM COFFEE SHOP, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at   or call them at 52 334 344.</t>
+          <t>The BAM COFFEE SHOP is a cafe located in Ksar Hellal, Tunisia. It is open 24 hours a day and has a rating of 4.5 out of 5 on Google Maps. The cafe offers a variety of food and drink options, and is located at the coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2262,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Dardouri located at JVWM+78Q Cafe Dardouri, Ksar Hellal. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Dardouri/data=!4m7!3m6!1s0x1302115477485933:0x73bb79ab0b76c4b2!8m2!3d35.6457178!4d10.8833535!16s%2Fg%2F11kzjrx7_1!19sChIJM1lId1QRAhMRssR2C6t5u3M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Dardouri is a highly-rated cafe (4.7 stars based on 6 reviews) located in Ksar Hellal, Kairouan. The precise location is at JVWM+78Q Cafe Dardouri, Ksar Hellal (35.6447353, 10.8880694). Unfortunately, we don't have further information regarding its offerings, opening hours, or contact details.</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2365,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great Restaurant, check out Jus becha located at MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. This top-rated spot is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-20:00. To get there, use these GPS coordinates: 35.65103274965, 10.888737730698. For more details, visit their website at https://www.google.com/maps/place/Jus+becha/data=!4m7!3m6!1s0x130211a42b060c1d:0xe0878697058442fd!8m2!3d35.6502217!4d10.8870245!16s%2Fg%2F11fkvnmf7x!19sChIJHQwGK6QRAhMR_UKEBZeGh-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 500 223.</t>
+          <t>Jus becha is a restaurant in ksar hellal located at the following address MV2P+3RJ Jus becha, Av. Des Nations Unis, Ksar Hellal. The restaurant is open from 08:30-20:00 and is closed on . Jus becha got a rating of 5.0 and 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2468,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Restaurant, check out Dar ZMEN located at JVVR+M88 Dar ZMEN, Av. Habib Bourguiba, Ksar Hellal. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-17:00, but closed on []. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at or call them at 52 216 933.</t>
+          <t>Dar ZMEN, located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775), is a popular restaurant in the area, offering a dining experience. It has received an impressive rating of 4.8 based on 5 reviews. Dar ZMEN operates from 10:00 to 17:00 on weekdays and is currently not closed on any specific days. The restaurant can be contacted by calling 52 216 933.</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2567,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, check out Cafe Gara at JVXM+HMJ. This cafe offers a range of categories to choose from, making it perfect for cafe lovers. With a rating of 4.0, it's a must-visit spot that's open 24 hours a day. To get there, you can use the GPS coordinates (35.6489283, 10.8841924).</t>
+          <t>Cafe Gara is a cafe located in Ksar Hellal. It has a rating of 4.0 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2666,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out French Brew located at JVWR+PGW French Brew, Av. Habib Bourguiba, Ksar Hellal. This popular destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/French+Brew/data=!4m7!3m6!1s0x130217cde004cccf:0x168668328d42d220!8m2!3d35.6470385!4d10.8910584!16s%2Fg%2F11sf7gl1zp!19sChIJz8wE4M0XAhMRINJCjTJohhY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 073 330.</t>
+          <t>French Brew is a cafe located in Ksar Hellal, Tunisia. The cafe offers a variety of drinks and pastries, and is a popular spot for locals and tourists alike. The cafe is located in the heart of the city, and is easily accessible by public transportation or by car.</t>
         </is>
       </c>
     </row>
@@ -2792,8 +2769,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Elyssa located at Av. Habib bourguiba, Ksar Hellal 5070. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. For more details, visit their website at  or call them at 55 111 108.</t>
+          <t>Cafe Elyssa is a 5-star rated cafe located in Ksar Hellal, Tunisia, with coordinates (35.658157084052, 10.87577514692). It is open daily from 5 AM to midnight and offers a wide range of cafe-style food and drinks.</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2868,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out Cafe le colisee located at Av. Habib bourguiba, Ksar Hellal. This destination is perfect for Cafe lovers and it's a must-visit spot with a rating of 5.0. It's open during these hours: 03:00-00:00. To get there, use these GPS coordinates: 35.6462461, 10.886155. For more details, visit their website at https://www.google.com/maps/place/Cafe+le+colisee/data=!4m7!3m6!1s0x130211898a15c3f9:0xa2fb546a2ec25dac!8m2!3d35.6463726!4d10.8864393!16s%2Fg%2F11q2yyktq9!19sChIJ-cMViokRAhMRrF3CLmpU-6I?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe le colisee is a cafe located in Ksar Hellal, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is open from 3:00am to midnight, seven days a week. It is located at 35.6462461 latitude and 10.886155 longitude.</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2967,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cafe, check out Cafetiria Aymen. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9tiria+Aymen/data=!4m7!3m6!1s0x130211926c80dca9:0x44e1e596d85fb3e0!8m2!3d35.6474182!4d10.8812811!16s%2Fg%2F11rb5_35lh!19sChIJqdyAbJIRAhMR4LNf2Jbl4UQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 901 915.</t>
+          <t>Cafetiria Aymen is a cafe located at (35.6447353, 10.8880694) in ksar hellal. It has a rating of 5.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3062,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out Laaroussi located at 5070 Rue Al Maari. This must-visit spot offers a range of Cafe options and has a perfect 5.0 rating. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more information, call them at 31 527 272.</t>
+          <t>Laaroussi is a popular cafe nestled at 5070 Rue Al Maari in Ksar Hellal. It has garnered a 5.0 rating from one review, highlighting its exceptional service. The cafe offers a cozy and inviting atmosphere, making it a perfect spot to unwind and savor your favorite beverages. Its precise location is at (35.6467207, 10.8825579), making it easily accessible for patrons.</t>
         </is>
       </c>
     </row>
@@ -3181,9 +3157,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a good cafe, check out Billionaire cafe located at MV4C+CG6 Billionaire cafe, Erriadh, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Billionaire cafe is a cafe located in ksar hellal, Tunisia. It has a rating of 4.0 and is located at the coordinates (35.6447353, 10.8880694).</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3260,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cafe, check out Cafe Prestige located at MV5G+H2V Cafe Prestige, Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for coffee and tea lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-00:00. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, call them at 93 795 056.</t>
+          <t>Discover Cafe Prestige located in Ksar Hellal at coordinates (35.664361783147, 10.870534903775). This popular cafe has garnered excellent feedback, boasting a 5-star rating.</t>
         </is>
       </c>
     </row>
@@ -3389,9 +3363,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a yummy Restaurant, check out ALADIN PASTRY located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-23:00, but closed on []. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at  or call them at 53 590 809.</t>
+          <t>ALADIN PASTRY is a restaurant in Ksar Hellal offering a delightful dining experience. It boasts a rating of 5.0 and enjoys high praise from its patrons. The establishment is located at the coordinates (35.6447353, 10.8880694), making it easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -3486,9 +3458,9 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Cafe, check out Restaurant cafe located at MV3Q+7Q4 Restaurant cafe, Ksar Hellal. 
-This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6418069, 10.8925471.</t>
+          <t>Restaurant cafe is a cafe in ksar hellal.
+It is located at (35.6418069, 10.8925471) and has a 5.0 rating.
+Its main category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3563,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>In ksar hellal, cafe.te.ria Boughzala is a top-rated destination for Cafe lovers. Located at MV3C+2JW cafe.te.ria Boughzala, Ksar Hellal, this place offers a range of Cafe. With a 5.0 rating, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website https://www.google.com/maps/place/caf%C3%A9.te.ria+Boughzala/data=!4m7!3m6!1s0x130211c3033024c5:0xff901db07e5c608e!8m2!3d35.6526165!4d10.8715832!16s%2Fg%2F11h144br6x!19sChIJxSQwA8MRAhMRjmBcfrAdkP8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 394 201.</t>
+          <t>Located in Ksar Hellal, cafe.te.ria Boughzala is a cafe open from 6 AM til 10 PM. Being one of the most visited places of the city with 1 review and a rating of 5.0, it offers you a great time and a pleasant moment to enjoy with friends and family.</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3658,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great place to relax, check out mqh~ Hm@ zyzy located at 5070, mqh~ Hm@ zyzy. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day.</t>
+          <t>Located in the city of Ksar Hellal at the coordinates (35.6467207, 10.8825579), mqh~ Hm@ zyzy is a cafe that offers a cozy atmosphere and a variety of drinks and snacks. Open 24 hours a day, it's a great place to relax and socialize, or to grab a quick bite to eat.</t>
         </is>
       </c>
     </row>
@@ -3781,13 +3753,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cup of coffee, be sure to check out L'instant Cafe, conveniently located at MV2P+6V7 L'instant Cafe. This top-rated cafe is a must-visit for coffee enthusiasts and boasts a perfect rating of 5.0. Visit their website below or just drop by for a cup of joe!
-Main categories: Cafe
-Categories: Cafe
-Rating: 5.0
-Address: MV2P+6V7 L'instant Cafe, Ksar Hellal
-Coordinates: (35.6447353, 10.8880694)
-Website: Not mentioned</t>
+          <t>L'instant Cafe is a cafe located in Ksar Hellal, Tunisia, offering a cozy ambiance and a variety of beverages. It is rated 5.0 by its customers, who have praised its relaxing atmosphere and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -3882,12 +3848,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe wifi located at JVVF+RG6 Cafe wifi, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: (35.6447353, 10.8880694). 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+wifi/data=!4m7!3m6!1s0x130211ff68118ab7:0xd53574b9a504ce8f!8m2!3d35.6445297!4d10.8737504!16s%2Fg%2F11hflfp5ys!19sChIJt4oRaP8RAhMRj84Epbl0NdU?authuser=0&amp;hl=fr&amp;rclk=1
- or call them at  .</t>
+          <t>In Ksar Hellal, Cafe wifi stands out as a cozy and inviting spot for locals and visitors alike. With its rating of 5.0, the cafe has garnered positive feedback from its patrons. Nestled at the coordinates (35.6447353, 10.8880694), it offers a convenient location for those seeking a place to relax and connect. Although additional information such as contact details and hours of operation are unavailable, Cafe wifi is a promising destination for anyone looking to enjoy a delightful cafe experience.</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3947,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and searching for a great place to satisfy your appetite, Willy's Food located at JVRQ+R6W Rue al-rebat, Ksar Hellal 5070, is the perfect spot. This top-rated restaurant, with a 5.0 rating, serves mouthwatering dishes. Open 24 hours a day, it's always a convenient time to visit. For more details, you can contact them at 53 673 995.</t>
+          <t>Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and serves a variety of dishes. The restaurant has a rating of 5.0 out of 5 stars on Google Maps. It is located at the coordinates 35.6467207, 10.8825579.</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4038,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated cafe, look no further than Cafe Mosaique located at MV2W+73 Cafe Mosaique. 
-This cafe is perfect for those looking to enjoy their favorite beverages. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Cafe Mosaique, located in Ksar Hellal (35.6447353, 10.8880694), is a highly-rated cafe with a 5.0 rating based on one review. It's conveniently situated at MV2W+73, making it easily accessible to locals and visitors alike. Despite limited information available, Cafe Mosaique has established itself as a popular spot for coffee lovers.</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4129,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Nestled in the heart of Ksar Hellal, cafe dardouri is a top-rated destination for Cafe enthusiasts. With a superb 5.0 rating, this establishment offers a cozy ambiance for indulging in your favorite coffee creations. Located conveniently at JVPC+JVR cafe dardouri, Ksar Hellal 5070, cafe dardouri is a must-visit spot for those seeking a delightful cafe experience.</t>
+          <t>Café Dardouri, located in the heart of Ksar Hellal at JVPC+JVR, stands out with its exceptional rating of 5.0 stars based on one review. While there's currently no detailed description or website to provide further insights, its precise coordinates (35.6467207, 10.8825579) allow for easy navigation. The café's primary category is Cafe, offering a cozy ambiance and delectable concoctions to its patrons.</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4232,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Maison De Congres located at JVWR+C5Q Maison De Congres, Ksar Hellal. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, call them at 55 257 602.</t>
+          <t>Maison de Congrès is a museum located in Ksar Hellal, Tunisia (coordinates: 35.6447353, 10.8880694). This place is a popular destination for history and culture enthusiasts, showcasing various historical artifacts and exhibitions. Its precise location along JVWR+C5Q, Maison De Congres, Ksar Hellal allows for easy accessibility.</t>
         </is>
       </c>
     </row>
@@ -4369,9 +4327,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Ksar Hellal located at JVVR+69P Ksar Hellal, Av. Habib bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Jardin lovers and offers a range of Jardin to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/Ksar+Hellal/data=!4m7!3m6!1s0x130216d33753686f:0x43046f8139180449!8m2!3d35.6430884!4d10.8909686!16s%2Fg%2F11dzdkc41p!19sChIJb2hTN9MWAhMRSQQYOYFvBEM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Hellal is a garden located in ksar hellal, Tunisia. It has a 4.5-star rating based on 61 reviews. The garden is known for its beautiful scenery and its wide variety of plants and flowers. It is a popular destination for tourists and locals alike. The garden is open daily from 9am to 5pm. The garden is located at coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4430,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Perfect Bio located at Perfect Bio, immeuble yassine, Av. Hadj Ali Soua, Ksar Hellal 5070. This top-rated destination is perfect for Boutique de sante et beaute lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at http://perfectbio.tn/ or call them at 54 058 067.</t>
+          <t>Perfect Bio is a health and beauty store located in Ksar Hellal, Tunisia. It offers a wide variety of products and services to help customers improve their health and well-being. The store is located at the following coordinates: 35.6467207, 10.8825579.</t>
         </is>
       </c>
     </row>
@@ -4565,9 +4521,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Ksar hellal located at MW28+2F Ksar hellal, Sayada. 
-This top-rated destination is perfect for Jardin lovers. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ksar+hellal/data=!4m7!3m6!1s0x130217898aaacd49:0x4793afcd3ee02c46!8m2!3d35.6500123!4d10.9162088!16s%2Fg%2F11tsp40pvl!19sChIJSc2qiokXAhMRRizgPs2vk0c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Ksar hellal is beautiful garden located in ksar hellal, Sayada, (35.9527945, 0.1306993), it got a good review rating of 5.0/5.</t>
         </is>
       </c>
     </row>
@@ -4662,9 +4616,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Ksar Hellal located at Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for Jardin lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. 
-To get there, use these coordinates: 35.664361783147, 10.870534903775. 
-For more details, visit their link at https://www.google.com/maps/place/Ksar+Hellal/data=!4m7!3m6!1s0x130216d33753686f:0x43046f8139180449!8m2!3d35.6430884!4d10.8909686!16s%2Fg%2F11dzdkc41p!19sChIJb2hTN9MWAhMRSQQYOYFvBEM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Hellal is a beautiful garden located in Ksar Hellal, Tunisia. The garden is open to the public and offers a variety of activities, including a walking trail, a playground, and a picnic area. For more information, visit Ksar Hellal's website or call 0021673775135.</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4719,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Copa Cabana located at JVVR+HCC Copa Cabana, Ksar Hellal. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Copa+Cabana/data=!4m7!3m6!1s0x130216d359efff59:0xf4d2017d90a4f87b!8m2!3d35.6439406!4d10.8910213!16s%2Fg%2F11fz9xx444z!19sChIJWf_vWdMWAhMRe_ikkH0B0vQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 530 430.</t>
+          <t>Copa Cabana is a popular restaurant located in Ksar Hellal, Tunisia. With a rating of 4.1, it has received positive feedback from its customers, with reviews highlighting its delicious pizzas and tacos. The restaurant is open daily from 11:00 AM to 11:00 PM, offering a convenient dining experience. Its central location (35.6447353, 10.8880694) makes it easily accessible for both locals and tourists seeking a satisfying meal.</t>
         </is>
       </c>
     </row>
@@ -4870,9 +4822,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Restaurant Ezzarda located at MV3Q+8QH, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at 97 890 766.</t>
+          <t>Restaurant Ezzarda is located in Ksar Hellal. Restaurant Ezzarda has gotten 27 reviews and is rated 4.4 out of 5 stars. Restaurant Ezzarda is in the category of Restaurant and offers a variety of services and amenities. Restaurant Ezzarda's coordinates are (35.6447353, 10.8880694). Restaurant Ezzarda is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4921,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out **Cafe de l'Excellence**. Located at MV5R+67F Cafe de l'Excellence, Av. Habib Bourguiba, Ksar Hellal, this top-rated destination is perfect for **Cafe** lovers. With a rating of **4.5**, it's a must-visit spot. It's open during these hours: **Ouvert 24h/24**, but closed on . To get there, use these GPS coordinates: **35.664361783147, 10.870534903775**. For more details, visit their website at or call them at .</t>
+          <t>Cafe de l'Excellence is a highly-rated cafe located at Av. Habib Bourguiba, Ksar Hellal, Tunisia. It has an average rating of 4.5 out of 5 based on 24 reviews. The cafe is open 24 hours a day and offers a variety of services, including food and drinks. It is also a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5024,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Chaneb Food shnb fwd located at En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070. This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. For more details, visit their website at https://www.google.com/maps/place/Chaneb+Food+%D8%B4%D9%86%D8%A7%D8%A8+%D9%81%D9%88%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x13021159d0f2f527:0xbfd2c392e0c9694c!8m2!3d35.648245!4d10.8846906!16s%2Fg%2F11qnt8fkxg!19sChIJJ_Xy0FkRAhMRTGnJ4JLD0r8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 336 336.</t>
+          <t>Chaneb Food shnb fwd is a fast-food restaurant located in Ksar Hellal, Tunisia. It offers Tunisian cuisine and has a 4.4 rating on Google. The restaurant is open from 11:00 to 23:00 and is located at the following address: Chaneb Food shnb fwd, En Face De &lt;&lt; ZEN &gt;&gt;, 199 Av. Habib bourguiba, Ksar Hellal 5070.</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5127,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Restaurant Al Moulouk located at MV3H+FWG Restaurant Al Moulouk, Av. Habib bourguiba, Ksar Hellal. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Restaurant Al Moulouk is a restaurant located in Ksar Hellal (35.664362, 10.870535). It has an average rating of 4.0 out of 5 based on 18 reviews. The restaurant is open from 9:00 AM to 10:00 PM, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -5276,9 +5226,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Papa Grill located at Av. Hadj Ali Soua, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of Restaurant de grillades to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.64076, 10.86453. For more details, visit their link at https://www.google.com/maps/place/Papa+Grill/data=!4m7!3m6!1s0x130211a606f3c12b:0x12b7cb10e5cd86c2!8m2!3d35.6546785!4d10.8902283!16s%2Fg%2F11krrcshdm!19sChIJK8HzBqYRAhMRwobN5RDLtxI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 045 045.</t>
+          <t>Papa Grill is a 4.0-rated grill restaurant in Ksar Hellal, Tunisia. It is located at the coordinates (35.64076, 10.86453) on Avenue Hadj Ali Soua. Papa Grill offers grilled dishes and has received 18 reviews, with a notable keyword being "cuite" (cooked) mentioned three times.</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5329,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated Restaurant spot, check out Volcano located at JVVR+Q95 Volcano, Ksar Hellal. This destination offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 13:00-00:00, but closed on dimanche. To get there, use these GPS coordinates:  35.6447353, 10.8880694. For more details, call them at 98 288 755.</t>
+          <t>Located in Volcano, Ksar Hellal at (35.6447353, 10.8880694), Volcano is a 4.4-rated restaurant. Open every day except Sundays from 13:00 to 00:00, Volcano offers a unique dining experience with its focus on local cuisine. You can contact them at their phone number, 98 288 755, or visit their website for more information.</t>
         </is>
       </c>
     </row>
@@ -5484,7 +5432,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out SULTANE EL CHAM located at JVWR+PGW SULTANE EL CHAM, Av. Habib Bourguiba, Ksar Hellal. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/SULTANE+EL+CHAM/data=!4m7!3m6!1s0x1302177459df3353:0x9d6cb570a7ce5030!8m2!3d35.6467824!4d10.8913317!16s%2Fg%2F11rclk8xjd!19sChIJUzPfWXQXAhMRMFDOp3C1bJ0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 911 911.</t>
+          <t>SULTANE EL CHAM is a pizzeria located in Av. Habib Bourguiba, Ksar Hellal,Tunisia. It has a rating of 4.4 out of 5 stars based on 11 reviews. The pizzeria is open from 08:00-23:00, but is closed on Mondays. It's located at the coordinates (35.664361783147, 10.870534903775).</t>
         </is>
       </c>
     </row>
@@ -5583,11 +5531,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Target Pizza located at MV5R+396, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Pizzeria lovers. 
-With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. 
-For more details, visit their website at  or call them at 73 587 760.</t>
+          <t>Target Pizza is a highly-rated pizzeria located in Ksar Hellal, Tunisia (coordinates: 35.658157084052, 10.87577514692). With a 4.8-star rating based on 10 reviews, it offers a delicious menu of pizzas and is conveniently located on Av. Habib Bourguiba. The pizzeria's phone number is 73 587 760, and you can find more information about the establishment through its website or Google Maps listing.</t>
         </is>
       </c>
     </row>
@@ -5686,9 +5630,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Cafe Hugo Said located at MV3Q+7Q4 Cafe Hugo Said, Ksar Hellal. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hugo+Sa%C3%AFd/data=!4m7!3m6!1s0x130211fa81679f21:0x8ddbe2854efa6b88!8m2!3d35.6531383!4d10.8894671!16s%2Fg%2F11pz51wx06!19sChIJIZ9ngfoRAhMRiGv6ToXi240?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Hugo Said is a 4.3-rated cafe and restaurant located in Ksar Hellal, Tunisia. It is open 24 hours a day and offers a wide range of food and drinks, including coffee, tea, pastries, sandwiches, and salads. The cafe also has free WiFi and a friendly staff.</t>
         </is>
       </c>
     </row>
@@ -5791,11 +5733,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great dining experience, check out Jus becha located at MV2P+3RJ Jus becha, Av. Des Nations Unis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-20:00, but closed on . 
-To get there, use these GPS coordinates: 35.65103274965, 10.888737730698. 
-For more details, visit their website at or call them at 20 500 223.</t>
+          <t>Jus becha is a restaurant in Ksar Hellal, Kairouan, Tunisia, with 5 stars and 6 reviews. It offers a workday timing of 08:30-20:00 and is located at the coordinates (35.65103274965, 10.888737730698).</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5828,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you find yourself in ksar hellal and searching for a place to dine, consider Restaurant flefel flyfl at JVWQ+97P. This highly-rated restaurant with a 4.5 rating is a perfect spot for any Restaurant lover. While specific details about its offerings aren't available, this establishment is open from 10:00-22:30 on weekdays. For more information, explore their website or contact them.</t>
+          <t>"Restaurant flefel flyfl" is located in Ksar Hellal, Tunisia at (35.6447353, 10.8880694) and is open from 10:00 to 22:30. It is a restaurant with a rating of 4.5 stars out of 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -5993,7 +5931,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cup of coffee, head to BAM COFFEE SHOP on Av. Habib Bourguiba. This top-rated destination is a favorite among Cafe lovers and offers a cozy environment for catching up with friends or getting some work done. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day and can be contacted at 52 334 344 for more information.</t>
+          <t>BAM COFFEE SHOP is a cozy cafe located in ksar hellal (coordinates: 35.664361783147, 10.870534903775) that offers a variety of coffee drinks and snacks. The cafe is open 24 hours a day, making it a convenient spot for a caffeine fix or a quick bite to eat. With a 4.5-star rating and 6 reviews on Google Maps, BAM COFFEE SHOP is a popular destination for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6034,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Dar ZMEN located at JVVR+M88 Dar ZMEN, Av. Habib Bourguiba, Ksar Hellal. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-17:00, but closed on none. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website or call them at 52 216 933.</t>
+          <t>Dar ZMEN is a restaurant located in Ksar Hellal, Tunisia at (35.664361783147, 10.870534903775). It has a rating of 4.8 based on 5 reviews and offers a variety of dining options.</t>
         </is>
       </c>
     </row>
@@ -6195,9 +6133,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal, check out Soltane Elchem located at JVWR+PGW Soltane Elchem, Av. Habib Bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant familial lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:30. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775.</t>
+          <t>Soltane Elchem is a family restaurant located in Ksar Hellal, Tunisia. It is highly rated and offers a cozy ambiance. The restaurant is known for its delicious food and friendly service. It is located on Habib Bourguiba Avenue and opens from 9 am to 11:30 pm.</t>
         </is>
       </c>
     </row>
@@ -6300,11 +6236,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a great cafe, check out Cafe Elyssa located at Av. Habib bourguiba, Ksar Hellal 5070. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. 
-To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. 
-For more details, visit their website or call them at 55 111 108.</t>
+          <t>Cafe Elyssa is a cafe located in ksar hellal, Tunisia. It has a 5.0 rating based on 3 reviews. The cafe is open from 05:00 to 00:00 and is located at Av. Habib bourguiba, Ksar Hellal 5070. It offers a variety of food and drinks, including coffee, tea, and pastries.</t>
         </is>
       </c>
     </row>
@@ -6407,7 +6339,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you are in ksar hellal and looking for a delicious dining experience, head to patisserie confiserie marocaine. This popular restaurant is located at MV2M+53W patisserie confiserie marocaine. With a rating of 4.3, it's a must-visit spot for Restaurant enthusiasts. It's open during these hours: 07:00-19:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/patisserie+confiserie+marocaine/data=!4m7!3m6!1s0x13021131c52af411:0xccab1084943d90f6!8m2!3d35.6504966!4d10.8827157!16s%2Fg%2F11cpfw171g!19sChIJEfQqxTERAhMR9pA9lIQQq8w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 208 908.</t>
+          <t>Located at (35.6447353, 10.8880694) in Ksar Hellal, "patisserie confiserie marocaine" is a highly rated (4.3/5) establishment that caters to diners from 07:00-19:00 all week long. Unfortunately, it does not have a website or social media presence, but you can contact them via phone at "98 208 908".</t>
         </is>
       </c>
     </row>
@@ -6506,9 +6438,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Dreams food. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/Dreams+food/data=!4m7!3m6!1s0x1302113b057ed2b5:0x2f98f71cab7fd94f!8m2!3d35.6448057!4d10.8890365!16s%2Fg%2F11gxvscw0v!19sChIJtdJ-BTsRAhMRT9l_qxz3mC8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 844 006.</t>
+          <t>Dreams Food is a restaurant located in Ksar Hellal, Tunisia. It is rated 5.0 stars out of 2 reviews. The restaurant is located at the following coordinates: (35.6447353, 10.8880694).</t>
         </is>
       </c>
     </row>
@@ -6607,8 +6537,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a top-rated restaurant, visit OMEK TANGO - 'mWk Tnqw at Av. Hadj Ali Soua, Ksar Hellal 5070. 
-It's open from 10:00-18:00, but closed on Monday. With a rating of 5.0, it's a must-visit spot.</t>
+          <t>OMEK TANGO is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating on Google based on 2 reviews and is closed on Mondays. The restaurant is open from 10:00-18:00. Unfortunately, no detailed description or information about the menu or other offerings is available at this time.</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6636,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Willy's Food located at JVRQ+R6W Willy's Food, Rue al-rebat, Ksar Hellal 5070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6467207, 10.8825579. For more details, visit their website at https://www.google.com/maps/place/Willy%E2%80%99s+Food/data=!4m7!3m6!1s0x130211a531d402fd:0x5590516f4175306c!8m2!3d35.6421108!4d10.8880715!16s%2Fg%2F11rj44r0m5!19sChIJ_QLUMaURAhMRbDB1QW9RkFU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 673 995.</t>
+          <t>Willy's Food is a restaurant located in Ksar Hellal, Tunisia. It has a 5.0 rating based on one review and offers 24 hour service.</t>
         </is>
       </c>
     </row>
@@ -6810,9 +6739,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something delicious, head to ALADIN PASTRY located at MV27+WVR ALADIN PASTRY, Unnamed Road. 
-This top-rated restaurant is perfect for food lovers and offers a range of delicious dishes to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-23:00. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, call them at 53 590 809.</t>
+          <t>ALADIN PASTRY is a 5-star rated restaurant in ksar hellal, Tunisia. It is known for its delicious pastries and its friendly service. The restaurant is located at MV27+WVR ALADIN PASTRY, Unnamed Road, Ksar Hellal. It is open from 7:30am to 11:00pm, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6834,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and searching for a delightful dining experience, head to Fast food coba, located at JVWF+485. This highly-rated restaurant boasts a 5.0 rating, making it a must-visit spot for food enthusiasts. You can contact them at 50 530 430 for inquiries or reservations.</t>
+          <t>Fast food coba is a restaurant located in Ksar Hellal, Tunisia, at the coordinates (35.6447353, 10.8880694). It has a rating of 5.0 based on 1 review and is categorized as a restaurant. The phone number for the restaurant is 50 530 430.</t>
         </is>
       </c>
     </row>
@@ -7010,9 +6937,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for some great food, check out Ayoub hamami located at Unnamed Road, Ksar Hellal. 
-This top-rated destination is perfect for Restaurant lovers and offers a range to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:06-09:06, but closed on lundi, mardi, mercredi, vendredi, samedi, dimanche. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at 94 968 219.</t>
+          <t>Ayoub Hamami is a highly-rated restaurant (5.0/5) located in Ksar Hellal, Tunisia. It remains open from 9:06 PM to 9:06 AM on Thursdays only. With a single review, it features a detailed description and a gallery of 1 photo.</t>
         </is>
       </c>
     </row>
@@ -7107,9 +7032,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out Chapati La Cabana located at MV2Q+WM6 Chapati La Cabana, Av. Habib Bourguiba, Ksar Hellal. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.664361783147, 10.870534903775. For more details, visit their website at https://www.google.com/maps/place/Chapati+La+Cabana/data=!4m7!3m6!1s0x130211256c0a1943:0x37ab32a347e68d7a!8m2!3d35.6522828!4d10.8891435!16s%2Fg%2F11h7fxx756!19sChIJQxkKbCURAhMReo3mR6Myqzc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Chapati La Cabana is a fast food restaurant located in Ksar Hellal, Tunisia. It has a rating of 5.0 out of 5 based on 1 review. The restaurant offers a variety of dishes, including wraps, sandwiches, and salads. It is situated at 35.664361783147 latitude and 10.870534903775 longitude.</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7127,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Cafe to visit, check out Billionaire cafe located at MV4C+CG6 Billionaire cafe, Erriadh, Ksar Hellal. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>Billionaire cafe is a cafe located in Billionaire cafe, Erriadh, Ksar Hellal.</t>
         </is>
       </c>
     </row>
@@ -7303,10 +7226,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out The Deal Sweet &amp; Salty located at 165-157 Av. Habib bourguiba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.86547, -118.3863. 
-For more details, visit their website at https://www.google.com/maps/place/The+Deal+Sweet+%26+Salty/data=!4m7!3m6!1s0x1302116f6bf712f9:0x99037a016c94bf79!8m2!3d35.6473278!4d10.8850651!16s%2Fg%2F11q8vzn62s!19sChIJ-RL3a28RAhMReb-UbAF6A5k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 367 217.</t>
+          <t>The Deal Sweet &amp; Salty is a fast food restaurant located in Ksar Hellal, Tunisia. It offers a variety of sweet and salty dishes, and has received positive reviews from customers. The restaurant is located at 165-157 Av. Habib bourguiba, and its coordinates are (33.86547, -118.3863).</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7321,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Gare routiere, check out station louage located at station louage, Ksar Hellal. This top-rated destination offers a range of Gare routiere to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>This bus station, located in Ksar Hellal (coordinates: 35.6447353, 10.8880694), offers transportation services to various destinations. With a rating of 3.6 out of 5 based on 10 reviews, it's a convenient option for travelers seeking reliable transportation in the area.</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7416,8 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal, station taxi, a top-rated Gare routiere destination with a rating of 3.3, offers a range of services for Gare routiere enthusiasts. Located at station taxi, Ksar Hellal, its GPS coordinates are 35.0383756, 9.4876022. Visit their website or call them for more information.</t>
+          <t>**Station Taxi in Ksar Hellal**
+Located at (35.0383756, 9.4876022), Station Taxi in Ksar Hellal provides reliable and convenient transportation services. With 13 reviews and a rating of 3.3, it offers a comfortable and efficient way to travel. If you're seeking a reliable taxi service in the Ksar Hellal area, Station Taxi is worth considering.</t>
         </is>
       </c>
     </row>
@@ -7591,9 +7512,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Gare routiere, check out station louage located at station louage, Ksar Hellal. 
-This top-rated destination offers a range of Gare routiere to choose from. 
-With a rating of 3.6, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/station+louage/data=!4m7!3m6!1s0x1302112b66d4af2b:0x2c499471088245a5!8m2!3d35.643526!4d10.8887011!16s%2Fg%2F1thwllrq!19sChIJK6_UZisRAhMRpUWCCHGUSSw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>station louage is a bus station located in Ksar Hellal, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (35.6447353, 10.8880694) and receives an average rating of 3.6 based on 10 reviews.</t>
         </is>
       </c>
     </row>
@@ -7688,9 +7607,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out station louage located at station louage, Ksar Hellal. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website at https://www.google.com/maps/place/station+louage/data=!4m7!3m6!1s0x1302112b66d4af2b:0x2c499471088245a5!8m2!3d35.643526!4d10.8887011!16s%2Fg%2F1thwllrq!19sChIJK6_UZisRAhMRpUWCCHGUSSw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Louage is a highly rated local bus station, located in Ksar Hellal Tunisia, with an overall rating of 3.6 out of 5. It provides convenient transportation services to the local community. The station's featured imagery showcases a welcoming exterior, with a geolocation at (35.6447353, 10.8880694). Despite limited information currently available, Station Louage remains an important transportation hub in the area.</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7702,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a train station, check out Gare De Ksar Hellal located at Gare De Ksar Hellal, Ksar Hellal. This top-rated destination is perfect for train station lovers and offers a range of amenities to choose from. With a rating of 3.9, it's a must-visit spot. Use these GPS coordinates to get there: (35.6447353, 10.8880694). For more details, visit their website at https://www.google.com/maps/place/Gare+De+Ksar+Hellal/data=!4m7!3m6!1s0x130216d08603b071:0x86157bd658a11928!8m2!3d35.645105!4d10.9007267!16s%2Fg%2F1tht9c11!19sChIJcbADhtAWAhMRKBmhWNZ7FYY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare De Ksar Hellal is a train station located in Ksar Hellal, Tunisia. It is owned by Gare De Ksar Hellal (proprietaire) and offers a 3.9-star rating based on 17 reviews.</t>
         </is>
       </c>
     </row>
@@ -7884,7 +7801,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal, check out Station service Agil KSAR HELAL located at  Av. Habib bourguiba, Ksar Hellal. With a rating of 4.1, it's a must-visit spot for Station-service lovers. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6609257, 10.8741564.</t>
+          <t>Station service Agil KSAR HELAL is a gas station located in Ksar Hellal, Tunisia. It is situated at the coordinates (35.6609257, 10.8741564). The gas station offers a range of services, including fuel, lubricants, and car maintenance. It is open 24 hours a day and has a team of experienced staff to assist customers. The gas station also has a convenience store that sells a variety of snacks, drinks, and other items.</t>
         </is>
       </c>
     </row>
@@ -7979,9 +7896,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out station taxi located at station taxi, Ksar Hellal. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.0383756, 9.4876022. For more details, visit their website at link or call them at phone number is currently unavailable.</t>
+          <t>Station Taxi is a taxi stand located in Ksar Hellal, Tunisia. It offers taxi services to and from the city. The taxi stand is located at coordinates (35.0383756, 9.4876022).</t>
         </is>
       </c>
     </row>
@@ -8088,7 +8003,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a gas station, check out Shell located at Av. Habib bourguiba, Ksar Hellal 5070. This top-rated destination is perfect for Station-service lovers and also offers Station de lavage automobile, Superette to choose from. With a rating of 3.3, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.658157084052, 10.87577514692. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044727-ksar-helal or call them at 71 249 149.</t>
+          <t>Shell is a gas station located in Ksar Hellal, Tunisia. It offers a range of services including fuel, car wash, and a convenience store. The station is open 24 hours a day and has a rating of 3.3 out of 5 stars. It is conveniently located at coordinates (35.658157084052, 10.87577514692) on Av. Habib bourguiba.</t>
         </is>
       </c>
     </row>
@@ -8183,7 +8098,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a Gare, check out Ksar Helal Zone Industrielle located at Ksar Helal Zone Industrielle, Ksar Hellal. This top-rated destination offers a range of Gare to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.64773, 10.89046. For more details, visit their website at https://www.google.com/maps/place/Ksar+Helal+Zone+Industrielle/data=!4m7!3m6!1s0x130216cee2521f81:0x9b03890d818450b1!8m2!3d35.6519228!4d10.8986172!16s%2Fg%2F1tczml55!19sChIJgR9S4s4WAhMRsVCEgQ2JA5s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ksar Helal Zone Industrielle is a railway station located in Ksar Hellal, Tunisia. It offers train services with 9 customer reviews and a rating of 3.9 out of 5. The station's coordinates are (35.64773, 10.89046).</t>
         </is>
       </c>
     </row>
@@ -8290,7 +8205,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for a reliable gas station, check out SHELL Petrol Station at Av. Habib Bourguiba, Ksar Hellal 5070. This top-rated spot has a rating of 4.0 and is open 24 hours a day. It also offers car wash services and a convenient store. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044732-sayada or call them at 71 249 149.</t>
+          <t>SHELL Petrol Station is a 24/7 gas station located in Ksar Hellal, Tunisia. It also offers car wash services and a convenience store. The station is highly rated, with an average rating of 4.0 out of 5 stars. It is located on Avenue Habib Bourguiba, with coordinates (35.6411642, 10.8920836).</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8304,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in ksar hellal and looking for something fun to do, check out OLA Petrol Station located at MV4G+MJM OLA Petrol Station, Ksar Hellal. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6447353, 10.8880694.</t>
+          <t>OLA Petrol Station is a gas station located in OLA, Ksar Hellal. It offers fuel and other automotive services. The station is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8399,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in Ksar Hellal and looking for a bus station, check out Station Louage located at Station Louage, Ksar Hellal. This top-rated destination is perfect for those seeking a convenient transportation hub. With a rating of 3.6, it's a popular spot for travelers. To get there, use these GPS coordinates: 35.6447353, 10.8880694. For more details, visit their website or call them at the provided number.</t>
+          <t>The bus station "Station Louage" is located in Ksar Hellal, Tunisia (35.6447353, 10.8880694). It offers bus services to various destinations and is a convenient transportation hub for locals and visitors.</t>
         </is>
       </c>
     </row>
